--- a/Input/Runfiles/Pricing/zcinflationlegs.xlsx
+++ b/Input/Runfiles/Pricing/zcinflationlegs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10793F4F-1DB9-44C0-8164-F42A8289A06E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A6D4CA-6BCE-44EA-8F55-7D3B9A7D080F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{52CF6CF3-B954-4931-B2B0-A068B0EE93D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52CF6CF3-B954-4931-B2B0-A068B0EE93D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Dates</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Lag</t>
+  </si>
+  <si>
+    <t>NotionalExchangeEnd</t>
   </si>
 </sst>
 </file>
@@ -428,6 +431,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,7 +462,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -774,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46186C0-3A2B-4A2A-A654-E69603C6CB05}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,44 +791,47 @@
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="7" width="9.88671875" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="19" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="22"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -850,20 +856,23 @@
       <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -882,356 +891,405 @@
       <c r="F4" s="8">
         <v>99.9</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="12">
         <v>0.25</v>
       </c>
       <c r="H4" s="9">
         <v>10000000</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="10"/>
       <c r="E5" s="5"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I6" s="8"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I15" s="8"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="8"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="8"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="8"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="8"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="8"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="8"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="8"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="8"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="8"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
       <c r="E28" s="5"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="8"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
       <c r="E29" s="5"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="8"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
       <c r="E30" s="5"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="8"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="5"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="8"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="8"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
       <c r="E33" s="5"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="8"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
       <c r="E34" s="5"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="8"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="8"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="8"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="5"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="8"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="5"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="8"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
       <c r="E39" s="5"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="8"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="5"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="8"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="8"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="8"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
       <c r="E43" s="5"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="8"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
       <c r="E44" s="5"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="6"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{977EBD07-491C-46A7-B5B9-5E7A9162779D}">
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$21</xm:f>
           </x14:formula1>
           <xm:sqref>E4:E44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6444F60E-AB35-4DB8-ADBF-0E5E074F16F4}">
+          <x14:formula1>
+            <xm:f>Sheet2!$E$1:$E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>I4:I25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
